--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.005792747336686201</v>
+        <v>0.2095248058516988</v>
       </c>
       <c r="E2">
-        <v>0.005792747336686201</v>
+        <v>0.2095248058516988</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999761135073</v>
+        <v>0.9999987493768228</v>
       </c>
       <c r="E3">
-        <v>0.9999999761135073</v>
+        <v>0.9999987493768228</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.09908165537549903</v>
+        <v>0.06878562545211682</v>
       </c>
       <c r="E4">
-        <v>0.09908165537549903</v>
+        <v>0.06878562545211682</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>8.653270073547055E-08</v>
+        <v>1.670840735283152E-10</v>
       </c>
       <c r="E5">
-        <v>8.653270073547055E-08</v>
+        <v>1.670840735283152E-10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -509,13 +509,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.6995156640035884</v>
+        <v>0.1298108064916564</v>
       </c>
       <c r="E6">
-        <v>0.6995156640035884</v>
+        <v>0.1298108064916564</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007061960033068197</v>
+        <v>0.02311207005339746</v>
       </c>
       <c r="E7">
-        <v>0.9929380399669318</v>
+        <v>0.9768879299466026</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9982626256708366</v>
+        <v>0.999641608354239</v>
       </c>
       <c r="E9">
-        <v>0.001737374329163432</v>
+        <v>0.0003583916457610137</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04902122097198911</v>
+        <v>0.06797437125971145</v>
       </c>
       <c r="E10">
-        <v>0.9509787790280109</v>
+        <v>0.9320256287402886</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0001127060507326866</v>
+        <v>0.01104048304710489</v>
       </c>
       <c r="E11">
-        <v>0.9998872939492673</v>
+        <v>0.9889595169528951</v>
       </c>
       <c r="F11">
-        <v>3.59234619140625</v>
+        <v>2.499987125396729</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
